--- a/data/lab5/data.xlsx
+++ b/data/lab5/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="D1 прямой" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="D2 прямой" sheetId="3" r:id="rId3"/>
     <sheet name="D2 обратный" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <r>
       <t>U</t>
@@ -208,6 +208,31 @@
       <t>, мА</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>ΔU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мВ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -434,11 +459,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -478,6 +561,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2741,7 +2836,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>В</a:t>
+                  <a:t>мВ</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1200">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -5686,7 +5781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6639,7 +6734,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7130,7 +7225,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7139,7 +7235,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8109,8 +8205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8126,7 +8222,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -8136,23 +8232,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="16">
         <v>1.5</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="16">
         <f>-A2/10</f>
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="17">
         <f>B2/10</f>
         <v>0.3</v>
       </c>
@@ -8588,7 +8684,7 @@
       <c r="D22" s="7">
         <v>1.5</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>

--- a/data/lab5/data.xlsx
+++ b/data/lab5/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="D1 прямой" sheetId="1" r:id="rId1"/>
@@ -5781,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,7 +6734,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7235,7 +7235,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8205,8 +8205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
